--- a/backend/data/hci_data.xlsx
+++ b/backend/data/hci_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\Documents\GitHub\hci_crx\flask_app\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13df6996760a0db9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A9EF81-E7F6-423B-8D56-A29E91AF3890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A18BDAE-E49A-4645-8D3B-B71104215621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" activeTab="2" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
+    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" firstSheet="2" activeTab="2" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <sheet name="Assignments" sheetId="4" r:id="rId5"/>
     <sheet name="Announcements" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="331">
   <si>
     <t>ID</t>
   </si>
@@ -457,66 +466,111 @@
     <t>Nidhi</t>
   </si>
   <si>
+    <t>1,7,11</t>
+  </si>
+  <si>
+    <t>https://calendar.google.com/calendar/embed?src=cG5jczdtaWs4Z212OGh0bTRydWJybHM3OGdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=YmJycHY4YmUxcTYxMWV0NzVyb2J2OWtjamdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23EF6C00&amp;color=%23C0CA33&amp;color=%23009688</t>
+  </si>
+  <si>
+    <t>Kamya</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>https://calendar.google.com/calendar/embed?src=bqm3m328rgvj1egjbju303ud1o%40group.calendar.google.com&amp;ctz=America%2FNew_York</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
     <t>1,7</t>
   </si>
   <si>
-    <t>Kamya</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Hannah</t>
+    <t>https://calendar.google.com/calendar/embed?src=cG5jczdtaWs4Z212OGh0bTRydWJybHM3OGdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23EF6C00&amp;color=%23C0CA33</t>
   </si>
   <si>
     <t>Arijit</t>
   </si>
   <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Y3UxMnNnYWZyMmtqanFhbnE4N2U1Mjhpbm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23B39DDB</t>
+  </si>
+  <si>
     <t>Anastasia</t>
   </si>
   <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>https://calendar.google.com/calendar/embed?src=pncs7mik8gmv8htm4rubrls78g%40group.calendar.google.com&amp;ctz=America%2FNew_York&amp;src=bqm3m328rgvj1egjbju303ud1o%40group.calendar.google.com&amp;ctz=America%2FNew_York</t>
+  </si>
+  <si>
     <t>Leo</t>
   </si>
   <si>
     <t>2,7</t>
   </si>
   <si>
+    <t>https://calendar.google.com/calendar/embed?src=cG5jczdtaWs4Z212OGh0bTRydWJybHM3OGdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23EF6C00&amp;color=%23F4511E</t>
+  </si>
+  <si>
     <t>Ruchir</t>
   </si>
   <si>
     <t>4,5,6</t>
   </si>
   <si>
+    <t>https://calendar.google.com/calendar/embed?src=dGRuYnBuY3VqMmxmY2ZsNXN1NHVrZWoyZ2NAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Mzd0c2M0MGxwbXFjdG1uNTUwOWsyZW5oMGNAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MjJlaml1aXF0dGZlbnV1a2pwbDBkaWdnYWtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%233F51B5&amp;color=%238E24AA</t>
+  </si>
+  <si>
     <t>Hemanth</t>
   </si>
   <si>
     <t>1,9,10</t>
   </si>
   <si>
+    <t>https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Y3UxMnNnYWZyMmtqanFhbnE4N2U1Mjhpbm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=dGlpa3NpazJxazh2ZjE0N2pucjJ1dG9sOW9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23B39DDB&amp;color=%23E67C73</t>
+  </si>
+  <si>
     <t>Manisha</t>
   </si>
   <si>
     <t>2,3</t>
   </si>
   <si>
+    <t>https://calendar.google.com/calendar/embed?src=c25qc2hsZDkzYjFqZTBnNW90b3VpMDhoOWNAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23795548&amp;color=%23F4511E</t>
+  </si>
+  <si>
     <t>Archana</t>
   </si>
   <si>
     <t>1,5</t>
   </si>
   <si>
+    <t>https://calendar.google.com/calendar/embed?src=dGRuYnBuY3VqMmxmY2ZsNXN1NHVrZWoyZ2NAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%23C0CA33</t>
+  </si>
+  <si>
     <t>Rohan</t>
   </si>
   <si>
     <t>2,11</t>
   </si>
   <si>
+    <t>https://calendar.google.com/calendar/embed?src=YmJycHY4YmUxcTYxMWV0NzVyb2J2OWtjamdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23009688&amp;color=%23F4511E</t>
+  </si>
+  <si>
     <t>AssignmentID</t>
   </si>
   <si>
@@ -602,6 +656,21 @@
   </si>
   <si>
     <t>https://piazza.com/class_profile/get_resource/ke1h18d2ysx6u/kh3kmbvfgrd3rp</t>
+  </si>
+  <si>
+    <t>Overleaf Template</t>
+  </si>
+  <si>
+    <t>https://www.overleaf.com/read/vkkfkctrgpfs</t>
+  </si>
+  <si>
+    <t>Worksheet 4: HeartModeling- Simulink and Testing</t>
+  </si>
+  <si>
+    <t>https://linklab-uva.github.io/modeling_cps/files/assignments/A042020.pdf</t>
+  </si>
+  <si>
+    <t>Azure Accelerated Networking</t>
   </si>
   <si>
     <t>CourseID</t>
@@ -779,6 +848,50 @@
   </si>
   <si>
     <t>https://collab.its.virginia.edu/portal/site/8a4f418b-fef8-4a4a-a1e6-7599284f5e7b/tool/45d6a4cb-4a03-4552-a41c-f92adda4ce06</t>
+  </si>
+  <si>
+    <t>Final Project Deliverables</t>
+  </si>
+  <si>
+    <t>Please submit your final project report. Your project report was outlined earlier in one of our class sessions -- especially how it should be structured. Please aim your project report to have 4 pages of content. (Between 3 and 5 please) Feel free to re-use this template https://www.overleaf.com/read/vkkfkctrgpfs I will not require you to use LateX but it is such an important part of writing scientific papers in computer science these days that you should aim to have a minimal command of it. Once you have a template such as the one I'm providing it is really just a matter of filling-in the blanks (mostly). Also please attach any source code -- extra materials - slides - videos that could help me grade your project. Any links to publicly available demos or github repositories are also much appreciated if available. Any code/ideas/data that you used from external sources have to be unambiguously documented -- otherwise anything tha I'm reviewing I will assume it is of your authorship -- err on the side of caution regarding this please.</t>
+  </si>
+  <si>
+    <t>Dec 4, 2020 5:00 pm</t>
+  </si>
+  <si>
+    <t>https://collab.its.virginia.edu/portal/site/8c208d02-50d2-47c3-a6c3-8633ddebf53c/tool/b1df1292-8fe6-460d-b859-fb480efb5bb1?panel=Main</t>
+  </si>
+  <si>
+    <t>Please submit a preliminary version of your project report. I will try to give you feedback before your final submission and an estimate of your grade if you do so. Your project report was outlined earlier in one of our class sessions -- especially how it should be structured. Please aim your project report to have 4 pages of content. (Between 3 and 5 please)
+Feel free to re-use this template https://www.overleaf.com/read/vkkfkctrgpfs
+I will not require you to use LateX but it is such an important part of writing scientific papers in computer science these days that you should aim to have a minimal command of it. Once you have a template such as the one I'm providing it is really just a matter of filling-in the blanks (mostly).
+Also please attach any source code -- extra materials - slides - videos that could help me grade your project. 
+Any links to publicly available demos or github repositories are also much appreciated if available.
+Any code/ideas/data that you used from external sources have to be unambiguously documented -- otherwise anything tha I'm reviewing I will assume it is of your authorship -- err on the side of caution regarding this please.</t>
+  </si>
+  <si>
+    <t>Nov 17, 2020 3:30 pm</t>
+  </si>
+  <si>
+    <t>Checkmark</t>
+  </si>
+  <si>
+    <t>Review 6</t>
+  </si>
+  <si>
+    <t>Pick any two</t>
+  </si>
+  <si>
+    <t>https://reddit.com/</t>
+  </si>
+  <si>
+    <t>Assignment 5</t>
+  </si>
+  <si>
+    <t>Upload a single .zip file with the filename [firstname_lastname_UVA_computing_ID].zip</t>
+  </si>
+  <si>
+    <t>Nov 19, 2020 11:59 pm</t>
   </si>
   <si>
     <t>Date</t>
@@ -953,12 +1066,35 @@
   <si>
     <t>https://piazza.com/class/ke1h18d2ysx6u?cid=78</t>
   </si>
+  <si>
+    <t>Saving Time</t>
+  </si>
+  <si>
+    <t>Hi Everyone,
+For Assignment 2, if you don't want to finetune the BERT model for text classification. You can use a set of model weights that I computed and just load the weights from this checkpoint. This will save you from running that cell.
+Take this is as a reward for checking Campuswire.</t>
+  </si>
+  <si>
+    <t>Sep 30, 2020 11:00 am</t>
+  </si>
+  <si>
+    <t>http://www.cs.virginia.edu/~vicente/vislang/best_model_so_far-vicente.pth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reminder  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homework 6 due tonight! </t>
+  </si>
+  <si>
+    <t>Nov 12, 2020 9:59 pm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,18 +1516,18 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" customWidth="1"/>
-    <col min="5" max="5" width="35.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1445,10 +1581,10 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1461,7 +1597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1496,7 +1632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1528,7 +1664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1563,7 +1699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1598,7 +1734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1633,7 +1769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1662,7 +1798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1688,7 +1824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1723,7 +1859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1758,7 +1894,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1843,9 +1979,11 @@
     <hyperlink ref="G12" r:id="rId46" xr:uid="{471FEABD-D125-4321-8EA0-89C98CF0E268}"/>
     <hyperlink ref="H12" r:id="rId47" xr:uid="{0248A1E5-3C32-47A9-AF86-C4831E95ADAC}"/>
     <hyperlink ref="F12" r:id="rId48" xr:uid="{518389A0-EB17-4819-B4FC-57356885DB27}"/>
+    <hyperlink ref="G2" r:id="rId49" xr:uid="{C558F49D-7D66-4960-B3DF-187CAB77FEED}"/>
+    <hyperlink ref="H2" r:id="rId50" xr:uid="{0B536188-2E7F-4C0A-80B8-186C311568FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -1857,9 +1995,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +2005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -1875,7 +2013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1883,7 +2021,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1891,7 +2029,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1899,7 +2037,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1907,7 +2045,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1915,7 +2053,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -1923,7 +2061,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1931,7 +2069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="11" t="s">
         <v>116</v>
       </c>
@@ -1939,7 +2077,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1947,7 +2085,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -1955,7 +2093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -1963,7 +2101,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -1971,7 +2109,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -1979,7 +2117,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -1987,7 +2125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -2002,15 +2140,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A567B86-7532-44B8-953F-0EDE11A50FFA}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2162,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -2038,7 +2176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2052,7 +2190,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2063,194 +2201,196 @@
         <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15">
       <c r="A5" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15">
       <c r="A6" t="s">
         <v>108</v>
       </c>
       <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
         <v>142</v>
       </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15">
       <c r="A7" t="s">
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15">
       <c r="A8" t="s">
         <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15">
       <c r="A9" t="s">
         <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="15">
       <c r="A10" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15">
       <c r="A12" t="s">
         <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15">
       <c r="A13" t="s">
         <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15">
       <c r="A14" t="s">
         <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15">
       <c r="A16" t="s">
         <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" ht="15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{84AB97E5-8A67-4633-9DEB-06CF5FD2600D}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{C00C7E77-599C-47DD-B0F1-6BEAB5C4099B}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{4203774F-53AA-4CFD-A133-43D0BC8B84E3}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{34670793-3EF0-4A1B-AAAC-32B068A54476}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{DAF5B147-2B3C-4407-8C47-A4FB933A104A}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{FC432822-A180-4946-97D6-490940813792}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{E06F98A1-D885-40FC-8671-0FCAFD0816A6}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{CFF39586-42DA-4C23-BE04-3BCEDCCE9433}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{91717014-AE7A-41A4-A094-F4172F0377A1}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{F47B3984-B6D8-4C4A-B410-79B2A21FCDCE}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{247F0133-9360-4E9C-A890-7DAFACDDB42A}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{897A595B-9918-4EA9-8B31-A2582941B922}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{FB8DE8CF-237E-4863-84C0-0DCAD7A62C68}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{3244C9E7-37FF-4785-A675-7AE9F13B42EB}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{AA9D11BB-C582-4EDC-984C-65E7D3028B88}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E" xr:uid="{B7B8687A-1D16-4D63-A98A-B9A93739B535}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E" xr:uid="{96CCF307-B4F2-4D2E-9081-A99C0B752F08}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{72639CD8-9E77-48FE-8710-A26A8BF4279B}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{73CF1F06-F0FB-4076-B806-15F6C0A5F851}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{8685431C-FD3C-465C-A434-AF095F100628}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{9BD0F07C-DB81-42D8-8B06-3AB2A2748288}"/>
+    <hyperlink ref="D4" r:id="rId9" display="https://calendar.google.com/calendar/embed?src=cG5jczdtaWs4Z212OGh0bTRydWJybHM3OGdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=YmJycHY4YmUxcTYxMWV0NzVyb2J2OWtjamdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23EF6C00&amp;color=%23C0CA33&amp;color=%23009688" xr:uid="{A7139BB4-10F7-4535-A3F1-7C2E9527CE98}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{4140BCA3-9CA2-4DFE-A704-2543155FED35}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{5258C0EA-F2D2-4B45-B02A-14238BB74D35}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{8E127AF7-A2D7-492E-9737-7B4FEC68888B}"/>
+    <hyperlink ref="D12" r:id="rId13" display="https://calendar.google.com/calendar/embed?src=dGRuYnBuY3VqMmxmY2ZsNXN1NHVrZWoyZ2NAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Mzd0c2M0MGxwbXFjdG1uNTUwOWsyZW5oMGNAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MjJlaml1aXF0dGZlbnV1a2pwbDBkaWdnYWtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%233F51B5&amp;color=%238E24AA" xr:uid="{5B0EECA7-8056-4C9F-BAA9-42D011B492AB}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{5A9E948E-423C-4854-BFE2-D5E98398B590}"/>
+    <hyperlink ref="D13" r:id="rId15" display="https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Y3UxMnNnYWZyMmtqanFhbnE4N2U1Mjhpbm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=dGlpa3NpazJxazh2ZjE0N2pucjJ1dG9sOW9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23B39DDB&amp;color=%23E67C73" xr:uid="{042FF906-6ADB-49E6-AE34-99F3F3B59B8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2258,30 +2398,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21BA0A2-F4EC-4668-A98E-245E730439B9}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -2291,7 +2431,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2299,13 +2439,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2313,10 +2453,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2325,7 +2465,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2333,10 +2473,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -2345,7 +2485,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2353,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -2365,7 +2505,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2373,10 +2513,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2385,7 +2525,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2393,10 +2533,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2405,7 +2545,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2413,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -2425,7 +2565,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2433,10 +2573,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2445,7 +2585,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2453,13 +2593,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2467,13 +2607,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2481,13 +2621,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2495,13 +2635,13 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2509,13 +2649,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2523,13 +2663,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2537,10 +2677,87 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2560,6 +2777,9 @@
     <hyperlink ref="D15" r:id="rId13" xr:uid="{778194EE-1A3A-4513-BAFB-5C0DCA9201DA}"/>
     <hyperlink ref="D12" r:id="rId14" xr:uid="{29FBD14A-8F97-452F-B485-6CF448B34FFE}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{E3D56761-D71F-4718-9FE8-F3E11C23809F}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{C94EF674-ABEC-4D7C-A1CD-A59853913C03}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{543BE34A-432E-4D7B-852D-11A166DEB78E}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{534E62AB-DBD1-4C35-89E8-E2500E93E07D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2567,48 +2787,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFF53B4-FACD-4A05-8D76-7FD0BDBEA621}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="126.7265625" customWidth="1"/>
+    <col min="7" max="7" width="126.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2616,23 +2836,23 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2640,22 +2860,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2663,25 +2883,25 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2689,25 +2909,25 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2715,25 +2935,25 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2741,22 +2961,22 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2764,22 +2984,22 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2787,22 +3007,22 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="F9">
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2810,22 +3030,22 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2833,22 +3053,22 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2856,22 +3076,22 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2879,19 +3099,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2899,16 +3119,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2916,16 +3139,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2933,22 +3159,22 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2956,22 +3182,22 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2979,16 +3205,102 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="F18">
         <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>244</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19">
+        <v>600</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3011,6 +3323,12 @@
     <hyperlink ref="G16" r:id="rId16" xr:uid="{C7DA84F0-CED6-4956-A89E-AA7E7FE12804}"/>
     <hyperlink ref="G17" r:id="rId17" xr:uid="{67383EA5-0C31-4C64-B1A9-3E31214A8A66}"/>
     <hyperlink ref="G18" r:id="rId18" xr:uid="{AAC9D5A2-2FA2-4724-B885-4C4CC2684061}"/>
+    <hyperlink ref="G19" r:id="rId19" xr:uid="{F06E783F-F2ED-4AAE-BA08-07761B70C7BA}"/>
+    <hyperlink ref="G20" r:id="rId20" xr:uid="{691ACD35-F019-45FF-8CA7-2CF779A9A9D1}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{B38AB6B4-9FF2-44AB-9519-B4B068469842}"/>
+    <hyperlink ref="G15" r:id="rId22" xr:uid="{134B7431-02F7-4FAB-9931-0B36B311DE6B}"/>
+    <hyperlink ref="G21" r:id="rId23" xr:uid="{B608D92D-1F58-4A39-AD07-89569697B0DC}"/>
+    <hyperlink ref="G22" r:id="rId24" xr:uid="{A667EF04-1153-4DB3-8FD1-BD0167747F1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3018,38 +3336,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF9F39-3440-49F6-B718-A308EB0F14AF}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="5" max="5" width="16.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3057,19 +3375,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3077,19 +3395,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3097,19 +3415,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3117,19 +3435,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3137,19 +3455,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3157,19 +3475,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3177,19 +3495,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3197,19 +3515,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3217,19 +3535,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3237,19 +3555,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3257,19 +3575,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3277,19 +3595,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3297,16 +3615,56 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>290</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3324,6 +3682,8 @@
     <hyperlink ref="F12" r:id="rId11" xr:uid="{E94578A8-CBDC-45B5-A54D-4F127C837962}"/>
     <hyperlink ref="F13" r:id="rId12" xr:uid="{ED02349D-A697-4555-8E5A-5206880FA43C}"/>
     <hyperlink ref="F14" r:id="rId13" xr:uid="{DEA08BBE-E228-492F-889E-BA38267E359B}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{64E03A06-B39A-42FB-80EC-5AEA22299FAA}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{4A6877E1-A77A-49CB-8964-4CED7798C598}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/hci_data.xlsx
+++ b/backend/data/hci_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13df6996760a0db9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A18BDAE-E49A-4645-8D3B-B71104215621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D108516B-9C0B-42A3-ADA4-7CD8C0C4469E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" firstSheet="2" activeTab="2" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
+    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" firstSheet="3" activeTab="3" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="343">
   <si>
     <t>ID</t>
   </si>
@@ -340,7 +340,7 @@
     <t>http://yangfengji.net/uva-ml-course/</t>
   </si>
   <si>
-    <t>https://applications.zoom.us/lti/rich/j/99165792947?oauth_consumer_key=WtcHJWd4RR6b7CXImqvBxQ&amp;lti_scid=5aed67a17a0d7b2a047c327009531db1ac356dabdd00ceea0d452cc03f580261</t>
+    <t>https://engineering.virginia.edu/faculty/aidong-zhang</t>
   </si>
   <si>
     <t>Machine Learning</t>
@@ -670,7 +670,25 @@
     <t>https://linklab-uva.github.io/modeling_cps/files/assignments/A042020.pdf</t>
   </si>
   <si>
-    <t>Azure Accelerated Networking</t>
+    <t>Azure Accelerated Networking: SmartNICs in the Public Cloud</t>
+  </si>
+  <si>
+    <t>https://reddit.com/</t>
+  </si>
+  <si>
+    <t>Paper 2</t>
+  </si>
+  <si>
+    <t>Paper 3</t>
+  </si>
+  <si>
+    <t>Paper 4</t>
+  </si>
+  <si>
+    <t>Simulink Model Template</t>
+  </si>
+  <si>
+    <t>https://linklab-uva.github.io/modeling_cps/files/assignments/A04_code2020.zip</t>
   </si>
   <si>
     <t>CourseID</t>
@@ -882,16 +900,19 @@
     <t>Pick any two</t>
   </si>
   <si>
-    <t>https://reddit.com/</t>
-  </si>
-  <si>
-    <t>Assignment 5</t>
+    <t>No grade</t>
+  </si>
+  <si>
+    <t>Assignment 4</t>
   </si>
   <si>
     <t>Upload a single .zip file with the filename [firstname_lastname_UVA_computing_ID].zip</t>
   </si>
   <si>
     <t>Nov 19, 2020 11:59 pm</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
   <si>
     <t>Date</t>
@@ -1088,6 +1109,21 @@
   </si>
   <si>
     <t>Nov 12, 2020 9:59 pm</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Week 12 Activity due soon!</t>
+  </si>
+  <si>
+    <t>Nov 11, 2020 9:59 pm</t>
+  </si>
+  <si>
+    <t>Interview Analysis due soon!</t>
+  </si>
+  <si>
+    <t>Nov 16, 2020 9:59 pm</t>
   </si>
 </sst>
 </file>
@@ -1516,14 +1552,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2142,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A567B86-7532-44B8-953F-0EDE11A50FFA}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2398,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21BA0A2-F4EC-4668-A98E-245E730439B9}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2735,6 +2771,9 @@
       <c r="C20" t="s">
         <v>207</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
@@ -2743,6 +2782,12 @@
       <c r="B21">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
@@ -2751,6 +2796,12 @@
       <c r="B22">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
@@ -2758,6 +2809,40 @@
       </c>
       <c r="B23">
         <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2780,6 +2865,12 @@
     <hyperlink ref="D17" r:id="rId16" xr:uid="{C94EF674-ABEC-4D7C-A1CD-A59853913C03}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{543BE34A-432E-4D7B-852D-11A166DEB78E}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{534E62AB-DBD1-4C35-89E8-E2500E93E07D}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{418550A9-8950-4993-9415-45FB9203C0EA}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{2F671B23-1294-47C0-88BD-48CB607C8557}"/>
+    <hyperlink ref="D21" r:id="rId21" xr:uid="{1D0BB928-F7C8-4347-A326-D133DC945B72}"/>
+    <hyperlink ref="D22" r:id="rId22" xr:uid="{1DC01FA9-AD88-4FF2-B3AF-D5B85CF86AB3}"/>
+    <hyperlink ref="D23" r:id="rId23" xr:uid="{51A580B5-C8D5-4B66-AB19-26B9F3360F68}"/>
+    <hyperlink ref="D20" r:id="rId24" xr:uid="{E87A9C45-F5AB-4632-A52F-B7D18095FCCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2789,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFF53B4-FACD-4A05-8D76-7FD0BDBEA621}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2807,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>175</v>
@@ -2816,16 +2907,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2836,19 +2927,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2860,19 +2951,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2883,22 +2974,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -2909,22 +3000,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
@@ -2935,22 +3026,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -2961,19 +3052,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
@@ -2984,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15">
@@ -3007,19 +3098,19 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F9">
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15">
@@ -3030,19 +3121,19 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15">
@@ -3053,19 +3144,19 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15">
@@ -3076,19 +3167,19 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15">
@@ -3099,16 +3190,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15">
@@ -3119,16 +3213,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15">
@@ -3139,16 +3236,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>255</v>
+        <v>261</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
@@ -3159,19 +3259,19 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -3182,19 +3282,19 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
@@ -3205,16 +3305,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F18">
         <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15">
@@ -3225,19 +3325,19 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F19">
         <v>600</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15">
@@ -3248,19 +3348,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15">
@@ -3271,16 +3371,19 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
+      </c>
+      <c r="F21" t="s">
+        <v>280</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
@@ -3291,16 +3394,19 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
+      </c>
+      <c r="F22" t="s">
+        <v>284</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3336,10 +3442,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF9F39-3440-49F6-B718-A308EB0F14AF}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3352,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>175</v>
@@ -3361,10 +3467,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3375,16 +3481,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3395,16 +3501,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3415,16 +3521,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -3435,16 +3541,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
@@ -3455,16 +3561,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -3475,16 +3581,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
@@ -3495,16 +3601,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -3515,16 +3621,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -3535,16 +3641,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
@@ -3555,16 +3661,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
@@ -3575,16 +3681,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
@@ -3595,16 +3701,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
@@ -3615,16 +3721,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3635,16 +3741,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -3655,16 +3761,56 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3684,6 +3830,8 @@
     <hyperlink ref="F14" r:id="rId13" xr:uid="{DEA08BBE-E228-492F-889E-BA38267E359B}"/>
     <hyperlink ref="F15" r:id="rId14" xr:uid="{64E03A06-B39A-42FB-80EC-5AEA22299FAA}"/>
     <hyperlink ref="F16" r:id="rId15" xr:uid="{4A6877E1-A77A-49CB-8964-4CED7798C598}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{1C4B0FF0-D4E2-469B-B996-DC3C038E2348}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{189B199D-13CD-4473-A805-6480FB0EF04E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/hci_data.xlsx
+++ b/backend/data/hci_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13df6996760a0db9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D108516B-9C0B-42A3-ADA4-7CD8C0C4469E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9320EC5E-1E9A-4D1D-9526-C80FD6CC5069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" firstSheet="3" activeTab="3" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
+    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" firstSheet="2" activeTab="2" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="343">
   <si>
     <t>ID</t>
   </si>
@@ -260,15 +260,9 @@
     <t>ah2ph</t>
   </si>
   <si>
-    <t>"Essentially, all models are wrong, but some are useful" - This course is about building useful models.!
+    <t>"""Essentially, all models are wrong, but some are useful"" - This course is about building useful models.!
 Design of complex and reliable cyber-physical systems (CPS) requires the creation of mathematical models, both of the environment and of the system itself. Such models allow us to analyze, control, verify, and optimize a system's performance. The modeling choice is largely dictated by the intended use of the model plus the intricacies of the underlying physical domain.
-This course will provide a solid foundation for understanding different modeling paradigms, and explore them through a deep dive and hands on implementation for three CPS domains: Energy, Medical, and Automotive cyber-physical systems. You will come out of this course with advanced and transferrable knowledge of model-based design methods and tools, and will be ready for tackling multi-disciplinary systems projects. In addition, you will become domain experts in energy, medical, and automotive cyber-physical systems. See the attached course handout for a detailed list of topics to be covered.
-Energy CPS modeling + predictive control Buildings consume nearly half of all energy produced in the United States. 75% of all electricity produced in the U.S. is used to just operate buildings. You will learn how first-principles of physics can be used to create a thermal RC-network model of the energy-use dynamics of any building. We will train and evaluate these models using real data from buildings. We will then use these models to optimize the operation of the building's heating, ventilation, and air-conditioning (HVAC), and lighting systems to make them more energy and cost-efficient. We will also explore alternative data-driven methods for building modeling.
-You will learn to use the following tools: EnergyPlus, MLE+,Matlab (SysID,StateSpace)
-Medical CPS modeling + model checking - Life-saving medical devices, like pacemakers and defibrillators, require a rigorous approach to verifying their safety. How do we ensure that the software on implantable medical devices will perform safely under all conditions? We will first tackle the question: How do you mathematically model the human heart? We will use timed automata to create a virtual heart electrophysiology model which will allow us to formally verify implantable cardiac devices. You will learn about the principles model checking, and verification.
-You will learn to use the following tools: Simulink, StateFlow, UPPAAL
-Automotive CPS modeling + end-to-end learning: End-to-end learning where direct camera inputs can be converted into control actions for an autonomous vehicle is redefining the way we think about modeling automotive systems. In this fast paced module, you will learn about how to model and test automotive control systems. You will learn how to generate code directly from the model implementation. We will then learn about deep convolution networks and use them for designing an end-to-end learning module for a self driving car.
-You will learn to use the following tools: TORCS, TensorFlow,</t>
+This course will provide a solid foundation for understanding different modeling paradigms, and explore them through a deep dive and hands on implementation for three CPS domains: Energy, Medical, and Automotive cyber-physical systems</t>
   </si>
   <si>
     <t xml:space="preserve">https://uva.hosted.panopto.com/Panopto/Pages/Sessions/List.aspx?embedded=1#folderID=%22572a66cf-ca2d-4c0d-a7de-ac21000878ec%22 </t>
@@ -906,13 +900,17 @@
     <t>Assignment 4</t>
   </si>
   <si>
-    <t>Upload a single .zip file with the filename [firstname_lastname_UVA_computing_ID].zip</t>
+    <t xml:space="preserve">Get started early on this worksheet.  
+Two important notes regarding the submission:
+1) Name the solution Simulink model for each problem according to the name provided in the worksheet.
+2) Add Simulink scopes to signals of interest in the problem and label them. This is very important for grading the model correctly. We will not grade a simulink model that does not contain a clearly labeled output scope.
+As always, upload all solution models as one zip folder with your computing ID as the name. </t>
   </si>
   <si>
     <t>Nov 19, 2020 11:59 pm</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>https://collab.its.virginia.edu/portal/directtool/7c8b6b9c-aa69-4e8b-8832-68ed6c0276b6/</t>
   </si>
   <si>
     <t>Date</t>
@@ -1215,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1234,6 +1232,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1552,7 +1551,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1873,7 +1872,7 @@
       <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2178,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A567B86-7532-44B8-953F-0EDE11A50FFA}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2436,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21BA0A2-F4EC-4668-A98E-245E730439B9}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2838,7 +2837,7 @@
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="16" t="s">
         <v>212</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2878,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFF53B4-FACD-4A05-8D76-7FD0BDBEA621}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3402,13 +3401,14 @@
       <c r="E22" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>125</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
+    </row>
+    <row r="23" spans="1:7" ht="15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{04A7ADE2-A754-4A93-9957-02FD7B22ED8A}"/>
@@ -3434,7 +3434,7 @@
     <hyperlink ref="G14" r:id="rId21" xr:uid="{B38AB6B4-9FF2-44AB-9519-B4B068469842}"/>
     <hyperlink ref="G15" r:id="rId22" xr:uid="{134B7431-02F7-4FAB-9931-0B36B311DE6B}"/>
     <hyperlink ref="G21" r:id="rId23" xr:uid="{B608D92D-1F58-4A39-AD07-89569697B0DC}"/>
-    <hyperlink ref="G22" r:id="rId24" xr:uid="{A667EF04-1153-4DB3-8FD1-BD0167747F1C}"/>
+    <hyperlink ref="G22" r:id="rId24" xr:uid="{C70AD4D4-33D1-4EBB-9439-025B64D113BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3445,7 +3445,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>

--- a/backend/data/hci_data.xlsx
+++ b/backend/data/hci_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13df6996760a0db9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9320EC5E-1E9A-4D1D-9526-C80FD6CC5069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C2CC95-5824-4540-8D09-5A4D62342013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" firstSheet="2" activeTab="2" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
+    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" firstSheet="4" activeTab="5" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="376">
   <si>
     <t>ID</t>
   </si>
@@ -340,6 +340,46 @@
     <t>Machine Learning</t>
   </si>
   <si>
+    <t>WGS7500</t>
+  </si>
+  <si>
+    <t>cf6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course is a graduate-only advanced introduction (inevitably partial and selective) to key concepts, thinkers, and texts in the fields of feminist and queer theory. The goal is to develop a foundation for your own research and teaching on gender and sexuality. Together, we will explore books and articles that have traveled across disciplines to shape debate in a variety of fields.
+</t>
+  </si>
+  <si>
+    <t>https://applications.zoom.us/lti/rich/j/98002680351?oauth_consumer_key=WtcHJWd4RR6b7CXImqvBxQ&amp;lti_scid=25853fb1d39a813262709ed907bd631b22dea25c18c07a0647f423a699705c88</t>
+  </si>
+  <si>
+    <t>Approaches to Gender and Sexuality Studies</t>
+  </si>
+  <si>
+    <t>DEM7000</t>
+  </si>
+  <si>
+    <t>jes4fx</t>
+  </si>
+  <si>
+    <t>https://applications.zoom.us/lti/rich/j/99708580643?oauth_consumer_key=WtcHJWd4RR6b7CXImqvBxQ&amp;lti_scid=cf287ae43f7676443aefd78c74a9ca53e03ed16fc07b0e702839eefea7125bd2</t>
+  </si>
+  <si>
+    <t>War, Violence and Democracy</t>
+  </si>
+  <si>
+    <t>ENGL8578</t>
+  </si>
+  <si>
+    <t>acb2hf</t>
+  </si>
+  <si>
+    <t>http://gmail.com/</t>
+  </si>
+  <si>
+    <t>Literature of the Americas</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
@@ -563,6 +603,15 @@
   </si>
   <si>
     <t>https://calendar.google.com/calendar/embed?src=YmJycHY4YmUxcTYxMWV0NzVyb2J2OWtjamdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23009688&amp;color=%23F4511E</t>
+  </si>
+  <si>
+    <t>Tarushi</t>
+  </si>
+  <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
+    <t>https://calendar.google.com/calendar/embed?src=czkwNzJsOHZwYWk0Zjk1dGFzcXMwMDQ3N2tAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MWZhYjFjZzRsMzg2Y2xpZ2M4M3ZuYmNoMGtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=OHZrYWc5aHRoMDIzb2FlNXNvaHB0YTZ1bm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%23795548&amp;color=%23F09300</t>
   </si>
   <si>
     <t>AssignmentID</t>
@@ -911,6 +960,46 @@
   </si>
   <si>
     <t>https://collab.its.virginia.edu/portal/directtool/7c8b6b9c-aa69-4e8b-8832-68ed6c0276b6/</t>
+  </si>
+  <si>
+    <t>Draft Syllabus</t>
+  </si>
+  <si>
+    <t>We will workshop these drafts in class. 
+Your draft syllabus should include the following elements: 
+            Course Description
+            Learning Objectives
+            Materials
+Class expectations
+Assignments (you must include one essay assignment)
+            Assessment Information (what rubric will you use)
+            Schedule for a twelve-week semester.
+The schedule should include specific reading, writing, listening, or watching assignments</t>
+  </si>
+  <si>
+    <t>Nov 17, 2020 1:00 pm</t>
+  </si>
+  <si>
+    <t>https://collab.its.virginia.edu/portal/site/13d4af25-0367-4078-9318-fbbbe0033f2e/tool/5f3ce9b5-503a-4f54-a034-3717c814d97c?panel=Main</t>
+  </si>
+  <si>
+    <t>Final Syllabus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your final assignment is to produce a complete syllabus for a twelve-week undergraduate seminar or lecture course focused on gender and/or sexuality.  This is an opportunity to build a class for your teaching portfolio and to think about feminist and queer approaches to pedagogy.  What readings would you teach?  How would you organize them?  What assignments would you use to engage students with readings?
+</t>
+  </si>
+  <si>
+    <t>Nov 24, 2020 11:00 pm</t>
+  </si>
+  <si>
+    <t>Review Essay</t>
+  </si>
+  <si>
+    <t>A reflection review essay of things read this week</t>
+  </si>
+  <si>
+    <t>Nov 18, 2020 11:59 pm</t>
   </si>
   <si>
     <t>Date</t>
@@ -1122,6 +1211,27 @@
   </si>
   <si>
     <t>Nov 16, 2020 9:59 pm</t>
+  </si>
+  <si>
+    <t>Environmentalism, Fantasy and Intersectionality A Comparison Between the US and the EU | November 5-6, 2020</t>
+  </si>
+  <si>
+    <t>Nov 4, 2020 2:04 pm</t>
+  </si>
+  <si>
+    <t>https://jmce.unc.edu/environmentalism-fantasy-intersectionality/</t>
+  </si>
+  <si>
+    <t>Into the Desert: Questions of Coloniality and Toxicity Lecture Series</t>
+  </si>
+  <si>
+    <t>I just came across an announcement for this series of lectures on deserts as spaces of colonialism and toxicity, which is being coordinated by one of our guests for this semester, architecture historian Samia Henni. It looks like the speakers will touch on issues of interest to many of you.</t>
+  </si>
+  <si>
+    <t>Sep 22, 2020 10:57 am</t>
+  </si>
+  <si>
+    <t>https://aap.cornell.edu/news-events/desert-questions-coloniality-and-toxicity</t>
   </si>
 </sst>
 </file>
@@ -1548,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3D680F-EDDF-4B08-83B1-9E2B212E0B07}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1962,6 +2072,60 @@
       </c>
       <c r="K12" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2016,9 +2180,12 @@
     <hyperlink ref="F12" r:id="rId48" xr:uid="{518389A0-EB17-4819-B4FC-57356885DB27}"/>
     <hyperlink ref="G2" r:id="rId49" xr:uid="{C558F49D-7D66-4960-B3DF-187CAB77FEED}"/>
     <hyperlink ref="H2" r:id="rId50" xr:uid="{0B536188-2E7F-4C0A-80B8-186C311568FC}"/>
+    <hyperlink ref="F13" r:id="rId51" xr:uid="{C8EAE357-DC64-46E8-8667-0379E8F2D90A}"/>
+    <hyperlink ref="F14" r:id="rId52" xr:uid="{FE031A48-8E5A-4BFD-84DE-83A5CBCB633A}"/>
+    <hyperlink ref="F15" r:id="rId53" xr:uid="{C2F5C900-893F-45A0-881F-76AAB8C4D494}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -2037,135 +2204,135 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="11" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2177,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A567B86-7532-44B8-953F-0EDE11A50FFA}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2188,227 +2355,240 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="15">
       <c r="A10" s="15" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" ht="15"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{84AB97E5-8A67-4633-9DEB-06CF5FD2600D}"/>
@@ -2426,6 +2606,7 @@
     <hyperlink ref="D12" r:id="rId13" display="https://calendar.google.com/calendar/embed?src=dGRuYnBuY3VqMmxmY2ZsNXN1NHVrZWoyZ2NAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Mzd0c2M0MGxwbXFjdG1uNTUwOWsyZW5oMGNAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MjJlaml1aXF0dGZlbnV1a2pwbDBkaWdnYWtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%233F51B5&amp;color=%238E24AA" xr:uid="{5B0EECA7-8056-4C9F-BAA9-42D011B492AB}"/>
     <hyperlink ref="D9" r:id="rId14" xr:uid="{5A9E948E-423C-4854-BFE2-D5E98398B590}"/>
     <hyperlink ref="D13" r:id="rId15" display="https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Y3UxMnNnYWZyMmtqanFhbnE4N2U1Mjhpbm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=dGlpa3NpazJxazh2ZjE0N2pucjJ1dG9sOW9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23B39DDB&amp;color=%23E67C73" xr:uid="{042FF906-6ADB-49E6-AE34-99F3F3B59B8B}"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://calendar.google.com/calendar/embed?src=czkwNzJsOHZwYWk0Zjk1dGFzcXMwMDQ3N2tAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MWZhYjFjZzRsMzg2Y2xpZ2M4M3ZuYmNoMGtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=OHZrYWc5aHRoMDIzb2FlNXNvaHB0YTZ1bm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%23795548&amp;color=%23F09300" xr:uid="{7351A6EF-467A-44D6-ABDA-C14211B505D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2435,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21BA0A2-F4EC-4668-A98E-245E730439B9}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2450,13 +2631,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -2474,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2488,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2508,10 +2689,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -2528,10 +2709,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -2548,10 +2729,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2568,10 +2749,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2588,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -2608,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2628,10 +2809,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2642,10 +2823,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2656,10 +2837,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2670,10 +2851,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2684,10 +2865,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2698,10 +2879,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2712,10 +2893,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2726,10 +2907,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2740,10 +2921,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2754,10 +2935,10 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2768,10 +2949,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2782,10 +2963,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2796,10 +2977,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2810,10 +2991,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2824,10 +3005,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2838,10 +3019,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2877,10 +3058,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFF53B4-FACD-4A05-8D76-7FD0BDBEA621}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2897,25 +3078,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2926,19 +3107,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -2950,19 +3131,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2973,22 +3154,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -2999,22 +3180,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
@@ -3025,22 +3206,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15">
@@ -3051,19 +3232,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
@@ -3074,19 +3255,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15">
@@ -3097,19 +3278,19 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F9">
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15">
@@ -3120,19 +3301,19 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15">
@@ -3143,19 +3324,19 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15">
@@ -3166,19 +3347,19 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15">
@@ -3189,19 +3370,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15">
@@ -3212,19 +3393,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15">
@@ -3235,19 +3416,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15">
@@ -3258,19 +3439,19 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15">
@@ -3281,19 +3462,19 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
@@ -3304,16 +3485,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F18">
         <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15">
@@ -3324,19 +3505,19 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F19">
         <v>600</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15">
@@ -3347,19 +3528,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15">
@@ -3370,19 +3551,19 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>208</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
@@ -3393,22 +3574,90 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F22">
         <v>125</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{04A7ADE2-A754-4A93-9957-02FD7B22ED8A}"/>
@@ -3435,6 +3684,9 @@
     <hyperlink ref="G15" r:id="rId22" xr:uid="{134B7431-02F7-4FAB-9931-0B36B311DE6B}"/>
     <hyperlink ref="G21" r:id="rId23" xr:uid="{B608D92D-1F58-4A39-AD07-89569697B0DC}"/>
     <hyperlink ref="G22" r:id="rId24" xr:uid="{C70AD4D4-33D1-4EBB-9439-025B64D113BB}"/>
+    <hyperlink ref="G23" r:id="rId25" xr:uid="{EB65579B-76B8-4600-AFAD-CEC3D8E86D44}"/>
+    <hyperlink ref="G24" r:id="rId26" xr:uid="{8330FFB3-3F13-4839-B929-04790512F2F1}"/>
+    <hyperlink ref="G25" r:id="rId27" xr:uid="{8CD15789-B8C1-414A-9266-6C2495E3669F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3442,10 +3694,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF9F39-3440-49F6-B718-A308EB0F14AF}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3458,19 +3710,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3481,16 +3733,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3501,16 +3753,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3521,16 +3773,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
@@ -3541,16 +3793,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
@@ -3561,16 +3813,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -3581,16 +3833,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
@@ -3601,16 +3853,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="D8" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -3621,16 +3873,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15">
@@ -3641,16 +3893,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
@@ -3661,16 +3913,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15">
@@ -3681,16 +3933,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
@@ -3701,16 +3953,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
@@ -3721,16 +3973,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15">
@@ -3741,16 +3993,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -3761,16 +4013,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15">
@@ -3781,16 +4033,16 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15">
@@ -3801,16 +4053,53 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>252</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" t="s">
+        <v>373</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3832,6 +4121,8 @@
     <hyperlink ref="F16" r:id="rId15" xr:uid="{4A6877E1-A77A-49CB-8964-4CED7798C598}"/>
     <hyperlink ref="F17" r:id="rId16" xr:uid="{1C4B0FF0-D4E2-469B-B996-DC3C038E2348}"/>
     <hyperlink ref="F18" r:id="rId17" xr:uid="{189B199D-13CD-4473-A805-6480FB0EF04E}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{1E10F744-7A09-49AD-B5D3-837A14206C17}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{542FB6FE-9612-4CC8-8B05-AE9E1FA892E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/hci_data.xlsx
+++ b/backend/data/hci_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23507"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13df6996760a0db9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\as9rw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C2CC95-5824-4540-8D09-5A4D62342013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="890" yWindow="-110" windowWidth="18420" windowHeight="11020" firstSheet="4" activeTab="5" xr2:uid="{0152CC16-2486-4035-A65F-2AD5729C8634}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Assignments" sheetId="4" r:id="rId5"/>
     <sheet name="Announcements" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="377">
   <si>
     <t>ID</t>
   </si>
@@ -1233,12 +1232,15 @@
   <si>
     <t>https://aap.cornell.edu/news-events/desert-questions-coloniality-and-toxicity</t>
   </si>
+  <si>
+    <t>1,8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1657,14 +1659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3D680F-EDDF-4B08-83B1-9E2B212E0B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
@@ -1672,7 +1674,7 @@
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2094,7 +2096,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2130,59 +2132,59 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{2D65E868-E1CB-4204-A97D-B46BB4AB6706}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{7ECDEF18-75B2-43AD-A033-A6C3FBF340B0}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{1ECB4A33-F21F-449D-A812-942ADE839F94}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{3E0012C4-BFA0-45A2-9D96-71DB80976BBF}"/>
-    <hyperlink ref="J2" r:id="rId5" xr:uid="{BE481EF0-0D42-400A-9BDB-7EDC33C061D6}"/>
-    <hyperlink ref="J3" r:id="rId6" xr:uid="{99C03987-DFCE-4D00-98E5-1C3C461351DF}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{4683314B-C71C-4B25-981D-B70CF5E1A480}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{95C240F9-9C1E-4F0B-B3FC-2B7414AC6FBF}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{13451EF1-9029-4913-BBF9-A4BCB45CD18C}"/>
-    <hyperlink ref="J5" r:id="rId10" xr:uid="{D44DF044-E1E0-453D-A73E-69A02AD2081D}"/>
-    <hyperlink ref="J7" r:id="rId11" xr:uid="{72DA3BCB-09A8-4C13-A384-E9327D8C9D44}"/>
-    <hyperlink ref="F7" r:id="rId12" xr:uid="{8C8193CC-2627-4F0D-936C-FFFF54A5E076}"/>
-    <hyperlink ref="F5" r:id="rId13" location="success" xr:uid="{C12E91D4-EA64-4460-9BFF-C7AB21491719}"/>
-    <hyperlink ref="F8" r:id="rId14" xr:uid="{64E7E58C-73FB-4771-969D-30F73B2C0E37}"/>
-    <hyperlink ref="H8" r:id="rId15" xr:uid="{039EF60D-00F6-4939-9D9A-3CBBDA8FE555}"/>
-    <hyperlink ref="J8" r:id="rId16" xr:uid="{1599CEAA-4EF3-439B-A141-CC4E8C31F28A}"/>
-    <hyperlink ref="F9" r:id="rId17" location="success" xr:uid="{E5DF11E8-721D-4B2A-B2D3-8327805C8303}"/>
-    <hyperlink ref="G9" r:id="rId18" xr:uid="{376767DC-0C35-4E99-8539-F05A9DA30ECE}"/>
-    <hyperlink ref="G4" r:id="rId19" xr:uid="{90D0F53C-5E89-4413-BFF1-A00F1E7FE2FD}"/>
-    <hyperlink ref="F4" r:id="rId20" location="success" xr:uid="{D51986B3-4484-41FB-AE9F-3DE594ACCCE8}"/>
-    <hyperlink ref="H4" r:id="rId21" xr:uid="{0DCAE09E-E3DF-401D-AFD5-821D9A488190}"/>
-    <hyperlink ref="I4" r:id="rId22" xr:uid="{C280FB22-2E5A-45EC-8EE1-04418926897B}"/>
-    <hyperlink ref="I6" r:id="rId23" xr:uid="{ACAE1F71-5A0D-4E20-A775-BD968938547C}"/>
-    <hyperlink ref="H6" r:id="rId24" xr:uid="{58306379-686F-4F5C-AAAF-B49AFA83A9F1}"/>
-    <hyperlink ref="G6" r:id="rId25" xr:uid="{DF28D313-F646-423B-ADDF-719F50C4DDF8}"/>
-    <hyperlink ref="F6" r:id="rId26" xr:uid="{49507AAB-F683-4D75-B0B0-374434C1D28E}"/>
-    <hyperlink ref="H7" r:id="rId27" xr:uid="{13B98D9A-A756-4DC6-9CC2-B630B4A921D2}"/>
-    <hyperlink ref="I7" r:id="rId28" xr:uid="{A569D5C4-B330-40DD-8143-1F71B8A796B2}"/>
-    <hyperlink ref="G7" r:id="rId29" xr:uid="{126E6FFA-58CB-418D-9CE8-1E9214CD8F17}"/>
-    <hyperlink ref="G5" r:id="rId30" xr:uid="{D90EE2A2-4F64-4E48-96DA-F4ACC63FE46F}"/>
-    <hyperlink ref="I5" r:id="rId31" xr:uid="{4A46E055-F8A3-4D74-B616-58DB3B377162}"/>
-    <hyperlink ref="I10" r:id="rId32" xr:uid="{20FD0E4E-4BA6-4252-A0B6-0D5946304067}"/>
-    <hyperlink ref="H10" r:id="rId33" xr:uid="{AF127CC2-6F04-4B34-B49D-A26A00586E15}"/>
-    <hyperlink ref="G10" r:id="rId34" xr:uid="{A6C56C33-4BF2-4AD8-A8CA-B391662DC1F7}"/>
-    <hyperlink ref="J10" r:id="rId35" xr:uid="{9E94B244-AD1C-4A2B-BF31-5AD1045FEDD1}"/>
-    <hyperlink ref="J11" r:id="rId36" xr:uid="{3DF28D58-77A9-46A5-AD78-06723AF55EC7}"/>
-    <hyperlink ref="I11" r:id="rId37" xr:uid="{0C0777E8-8BE0-44F8-A46D-95988635C3B8}"/>
-    <hyperlink ref="F11" r:id="rId38" xr:uid="{A8226A08-BF77-4B22-BBB6-A0CBB6653F75}"/>
-    <hyperlink ref="G11" r:id="rId39" xr:uid="{F4CFB599-A6A8-4C67-948D-909E76C3019D}"/>
-    <hyperlink ref="H11" r:id="rId40" xr:uid="{1BBDEC58-55F8-4B26-90BA-9556895C76F8}"/>
-    <hyperlink ref="F10" r:id="rId41" location="folderID=%22572a66cf-ca2d-4c0d-a7de-ac21000878ec%22" xr:uid="{617E8186-F06C-4116-8AF0-38B09C16B84B}"/>
-    <hyperlink ref="F2" r:id="rId42" xr:uid="{17EFADC7-F545-4A57-9E93-D5EA8854B5DA}"/>
-    <hyperlink ref="J12" r:id="rId43" xr:uid="{07814FCC-4A5E-4935-AA99-36095B1F6F23}"/>
-    <hyperlink ref="I2" r:id="rId44" xr:uid="{4CEF9A98-A4D1-42F7-8995-749BA8FAD86E}"/>
-    <hyperlink ref="I12" r:id="rId45" xr:uid="{A6F11B11-0090-46A6-A59E-D57777E985D9}"/>
-    <hyperlink ref="G12" r:id="rId46" xr:uid="{471FEABD-D125-4321-8EA0-89C98CF0E268}"/>
-    <hyperlink ref="H12" r:id="rId47" xr:uid="{0248A1E5-3C32-47A9-AF86-C4831E95ADAC}"/>
-    <hyperlink ref="F12" r:id="rId48" xr:uid="{518389A0-EB17-4819-B4FC-57356885DB27}"/>
-    <hyperlink ref="G2" r:id="rId49" xr:uid="{C558F49D-7D66-4960-B3DF-187CAB77FEED}"/>
-    <hyperlink ref="H2" r:id="rId50" xr:uid="{0B536188-2E7F-4C0A-80B8-186C311568FC}"/>
-    <hyperlink ref="F13" r:id="rId51" xr:uid="{C8EAE357-DC64-46E8-8667-0379E8F2D90A}"/>
-    <hyperlink ref="F14" r:id="rId52" xr:uid="{FE031A48-8E5A-4BFD-84DE-83A5CBCB633A}"/>
-    <hyperlink ref="F15" r:id="rId53" xr:uid="{C2F5C900-893F-45A0-881F-76AAB8C4D494}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6"/>
+    <hyperlink ref="J4" r:id="rId7"/>
+    <hyperlink ref="H5" r:id="rId8"/>
+    <hyperlink ref="J6" r:id="rId9"/>
+    <hyperlink ref="J5" r:id="rId10"/>
+    <hyperlink ref="J7" r:id="rId11"/>
+    <hyperlink ref="F7" r:id="rId12"/>
+    <hyperlink ref="F5" r:id="rId13" location="success"/>
+    <hyperlink ref="F8" r:id="rId14"/>
+    <hyperlink ref="H8" r:id="rId15"/>
+    <hyperlink ref="J8" r:id="rId16"/>
+    <hyperlink ref="F9" r:id="rId17" location="success"/>
+    <hyperlink ref="G9" r:id="rId18"/>
+    <hyperlink ref="G4" r:id="rId19"/>
+    <hyperlink ref="F4" r:id="rId20" location="success"/>
+    <hyperlink ref="H4" r:id="rId21"/>
+    <hyperlink ref="I4" r:id="rId22"/>
+    <hyperlink ref="I6" r:id="rId23"/>
+    <hyperlink ref="H6" r:id="rId24"/>
+    <hyperlink ref="G6" r:id="rId25"/>
+    <hyperlink ref="F6" r:id="rId26"/>
+    <hyperlink ref="H7" r:id="rId27"/>
+    <hyperlink ref="I7" r:id="rId28"/>
+    <hyperlink ref="G7" r:id="rId29"/>
+    <hyperlink ref="G5" r:id="rId30"/>
+    <hyperlink ref="I5" r:id="rId31"/>
+    <hyperlink ref="I10" r:id="rId32"/>
+    <hyperlink ref="H10" r:id="rId33"/>
+    <hyperlink ref="G10" r:id="rId34"/>
+    <hyperlink ref="J10" r:id="rId35"/>
+    <hyperlink ref="J11" r:id="rId36"/>
+    <hyperlink ref="I11" r:id="rId37"/>
+    <hyperlink ref="F11" r:id="rId38"/>
+    <hyperlink ref="G11" r:id="rId39"/>
+    <hyperlink ref="H11" r:id="rId40"/>
+    <hyperlink ref="F10" r:id="rId41" location="folderID=%22572a66cf-ca2d-4c0d-a7de-ac21000878ec%22"/>
+    <hyperlink ref="F2" r:id="rId42"/>
+    <hyperlink ref="J12" r:id="rId43"/>
+    <hyperlink ref="I2" r:id="rId44"/>
+    <hyperlink ref="I12" r:id="rId45"/>
+    <hyperlink ref="G12" r:id="rId46"/>
+    <hyperlink ref="H12" r:id="rId47"/>
+    <hyperlink ref="F12" r:id="rId48"/>
+    <hyperlink ref="G2" r:id="rId49"/>
+    <hyperlink ref="H2" r:id="rId50"/>
+    <hyperlink ref="F13" r:id="rId51"/>
+    <hyperlink ref="F14" r:id="rId52"/>
+    <hyperlink ref="F15" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
@@ -2190,16 +2192,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA950559-A82F-4ABD-BED6-164EEE2B4BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2215,7 +2217,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>129</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -2341,16 +2343,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A567B86-7532-44B8-953F-0EDE11A50FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -2420,7 +2422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2434,21 +2436,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>158</v>
       </c>
-      <c r="C7">
-        <v>8</v>
+      <c r="C7" t="s">
+        <v>376</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2477,7 +2479,7 @@
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>129</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -2533,7 +2535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2591,42 +2593,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{84AB97E5-8A67-4633-9DEB-06CF5FD2600D}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{C00C7E77-599C-47DD-B0F1-6BEAB5C4099B}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E" xr:uid="{B7B8687A-1D16-4D63-A98A-B9A93739B535}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E" xr:uid="{96CCF307-B4F2-4D2E-9081-A99C0B752F08}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{72639CD8-9E77-48FE-8710-A26A8BF4279B}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{73CF1F06-F0FB-4076-B806-15F6C0A5F851}"/>
-    <hyperlink ref="D16" r:id="rId7" xr:uid="{8685431C-FD3C-465C-A434-AF095F100628}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{9BD0F07C-DB81-42D8-8B06-3AB2A2748288}"/>
-    <hyperlink ref="D4" r:id="rId9" display="https://calendar.google.com/calendar/embed?src=cG5jczdtaWs4Z212OGh0bTRydWJybHM3OGdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=YmJycHY4YmUxcTYxMWV0NzVyb2J2OWtjamdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23EF6C00&amp;color=%23C0CA33&amp;color=%23009688" xr:uid="{A7139BB4-10F7-4535-A3F1-7C2E9527CE98}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{4140BCA3-9CA2-4DFE-A704-2543155FED35}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{5258C0EA-F2D2-4B45-B02A-14238BB74D35}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{8E127AF7-A2D7-492E-9737-7B4FEC68888B}"/>
-    <hyperlink ref="D12" r:id="rId13" display="https://calendar.google.com/calendar/embed?src=dGRuYnBuY3VqMmxmY2ZsNXN1NHVrZWoyZ2NAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Mzd0c2M0MGxwbXFjdG1uNTUwOWsyZW5oMGNAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MjJlaml1aXF0dGZlbnV1a2pwbDBkaWdnYWtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%233F51B5&amp;color=%238E24AA" xr:uid="{5B0EECA7-8056-4C9F-BAA9-42D011B492AB}"/>
-    <hyperlink ref="D9" r:id="rId14" xr:uid="{5A9E948E-423C-4854-BFE2-D5E98398B590}"/>
-    <hyperlink ref="D13" r:id="rId15" display="https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Y3UxMnNnYWZyMmtqanFhbnE4N2U1Mjhpbm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=dGlpa3NpazJxazh2ZjE0N2pucjJ1dG9sOW9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23B39DDB&amp;color=%23E67C73" xr:uid="{042FF906-6ADB-49E6-AE34-99F3F3B59B8B}"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://calendar.google.com/calendar/embed?src=czkwNzJsOHZwYWk0Zjk1dGFzcXMwMDQ3N2tAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MWZhYjFjZzRsMzg2Y2xpZ2M4M3ZuYmNoMGtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=OHZrYWc5aHRoMDIzb2FlNXNvaHB0YTZ1bm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%23795548&amp;color=%23F09300" xr:uid="{7351A6EF-467A-44D6-ABDA-C14211B505D4}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D16" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId9" display="https://calendar.google.com/calendar/embed?src=cG5jczdtaWs4Z212OGh0bTRydWJybHM3OGdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=YmJycHY4YmUxcTYxMWV0NzVyb2J2OWtjamdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23EF6C00&amp;color=%23C0CA33&amp;color=%23009688"/>
+    <hyperlink ref="D14" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D12" r:id="rId13" display="https://calendar.google.com/calendar/embed?src=dGRuYnBuY3VqMmxmY2ZsNXN1NHVrZWoyZ2NAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Mzd0c2M0MGxwbXFjdG1uNTUwOWsyZW5oMGNAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MjJlaml1aXF0dGZlbnV1a2pwbDBkaWdnYWtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%233F51B5&amp;color=%238E24AA"/>
+    <hyperlink ref="D9" r:id="rId14"/>
+    <hyperlink ref="D13" r:id="rId15" display="https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Y3UxMnNnYWZyMmtqanFhbnE4N2U1Mjhpbm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=dGlpa3NpazJxazh2ZjE0N2pucjJ1dG9sOW9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23B39DDB&amp;color=%23E67C73"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://calendar.google.com/calendar/embed?src=czkwNzJsOHZwYWk0Zjk1dGFzcXMwMDQ3N2tAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MWZhYjFjZzRsMzg2Y2xpZ2M4M3ZuYmNoMGtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=OHZrYWc5aHRoMDIzb2FlNXNvaHB0YTZ1bm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%23795548&amp;color=%23F09300"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21BA0A2-F4EC-4668-A98E-245E730439B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2649,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2681,7 +2683,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2701,7 +2703,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2721,7 +2723,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2741,7 +2743,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2761,7 +2763,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2781,7 +2783,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2801,7 +2803,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2843,7 +2845,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2857,7 +2859,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2871,7 +2873,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2899,7 +2901,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2913,7 +2915,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2997,7 +2999,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3027,44 +3029,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C7955FBB-62D5-496F-A35B-0893F0737FE8}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{C755002D-A01B-4AFC-A2C8-3B8C6318ABA1}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{42AF1D55-193F-4903-915E-08ED0755B07F}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{BE2CEFE1-2A38-454A-8EA9-0DD67AF34B33}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{2FF27F75-39FB-4AF7-89D4-264748C520BF}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{C40D73A9-D4AA-4903-AAC9-9F0A77D97957}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{A6D2255C-D14D-4989-9DF9-0B3FFE58F440}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{1B32BB47-4443-4398-B67E-F508DD6DA20F}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{86A8CE74-6311-4776-8A5D-488AD41B0E44}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{315CEE60-589E-4509-9E47-F2E58E24761A}"/>
-    <hyperlink ref="D10" r:id="rId11" xr:uid="{5B648DA4-344A-4133-82E0-068001213E2D}"/>
-    <hyperlink ref="D11" r:id="rId12" xr:uid="{2D7113FC-1141-443F-A210-C6D916AFA916}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{778194EE-1A3A-4513-BAFB-5C0DCA9201DA}"/>
-    <hyperlink ref="D12" r:id="rId14" xr:uid="{29FBD14A-8F97-452F-B485-6CF448B34FFE}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{E3D56761-D71F-4718-9FE8-F3E11C23809F}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{C94EF674-ABEC-4D7C-A1CD-A59853913C03}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{543BE34A-432E-4D7B-852D-11A166DEB78E}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{534E62AB-DBD1-4C35-89E8-E2500E93E07D}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{418550A9-8950-4993-9415-45FB9203C0EA}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{2F671B23-1294-47C0-88BD-48CB607C8557}"/>
-    <hyperlink ref="D21" r:id="rId21" xr:uid="{1D0BB928-F7C8-4347-A326-D133DC945B72}"/>
-    <hyperlink ref="D22" r:id="rId22" xr:uid="{1DC01FA9-AD88-4FF2-B3AF-D5B85CF86AB3}"/>
-    <hyperlink ref="D23" r:id="rId23" xr:uid="{51A580B5-C8D5-4B66-AB19-26B9F3360F68}"/>
-    <hyperlink ref="D20" r:id="rId24" xr:uid="{E87A9C45-F5AB-4632-A52F-B7D18095FCCA}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="D13" r:id="rId9"/>
+    <hyperlink ref="D14" r:id="rId10"/>
+    <hyperlink ref="D10" r:id="rId11"/>
+    <hyperlink ref="D11" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D12" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
+    <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="D22" r:id="rId22"/>
+    <hyperlink ref="D23" r:id="rId23"/>
+    <hyperlink ref="D20" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFF53B4-FACD-4A05-8D76-7FD0BDBEA621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
@@ -3073,7 +3075,7 @@
     <col min="7" max="7" width="126.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3101,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3123,7 +3125,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3146,7 +3148,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3172,7 +3174,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3270,7 +3272,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3316,7 +3318,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3520,7 +3522,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3566,7 +3568,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3612,7 +3614,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3635,7 +3637,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3660,52 +3662,52 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{04A7ADE2-A754-4A93-9957-02FD7B22ED8A}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{3EDB843B-D3B9-4726-BCDD-F76A59E0AC86}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{070D6281-55C4-4CB7-91FB-FECFB75AE884}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{C73322AF-8D82-4970-8EF4-51D796DDB351}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{72D8F50C-5DB2-4911-992A-A289489CAD67}"/>
-    <hyperlink ref="H5" r:id="rId6" xr:uid="{99A6D9EC-AAB8-42EE-9B12-DFD56E655252}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{CAFDF24B-07E6-458D-B7D5-A6BCE5B309CE}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{3DC1F853-DEC9-45DF-859F-952258837A08}"/>
-    <hyperlink ref="G5" r:id="rId9" xr:uid="{7F0A1137-4DB5-4416-A465-B27C05809F69}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{2DB1232B-1275-40AE-BF01-7CC6BED35F88}"/>
-    <hyperlink ref="G9" r:id="rId11" xr:uid="{07446731-B66D-449E-87C5-F5C6090FC1F4}"/>
-    <hyperlink ref="G10" r:id="rId12" xr:uid="{F238220C-6AD2-4CB6-9893-FCB9C3CBD624}"/>
-    <hyperlink ref="G11" r:id="rId13" xr:uid="{025C1EF7-A364-45DD-A517-3FED89288B0B}"/>
-    <hyperlink ref="G12" r:id="rId14" xr:uid="{8D0AC641-B6A9-4773-93B9-DE7C54CED785}"/>
-    <hyperlink ref="G13" r:id="rId15" xr:uid="{38B20394-E40F-462B-989D-503A30C609C5}"/>
-    <hyperlink ref="G16" r:id="rId16" xr:uid="{C7DA84F0-CED6-4956-A89E-AA7E7FE12804}"/>
-    <hyperlink ref="G17" r:id="rId17" xr:uid="{67383EA5-0C31-4C64-B1A9-3E31214A8A66}"/>
-    <hyperlink ref="G18" r:id="rId18" xr:uid="{AAC9D5A2-2FA2-4724-B885-4C4CC2684061}"/>
-    <hyperlink ref="G19" r:id="rId19" xr:uid="{F06E783F-F2ED-4AAE-BA08-07761B70C7BA}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{691ACD35-F019-45FF-8CA7-2CF779A9A9D1}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{B38AB6B4-9FF2-44AB-9519-B4B068469842}"/>
-    <hyperlink ref="G15" r:id="rId22" xr:uid="{134B7431-02F7-4FAB-9931-0B36B311DE6B}"/>
-    <hyperlink ref="G21" r:id="rId23" xr:uid="{B608D92D-1F58-4A39-AD07-89569697B0DC}"/>
-    <hyperlink ref="G22" r:id="rId24" xr:uid="{C70AD4D4-33D1-4EBB-9439-025B64D113BB}"/>
-    <hyperlink ref="G23" r:id="rId25" xr:uid="{EB65579B-76B8-4600-AFAD-CEC3D8E86D44}"/>
-    <hyperlink ref="G24" r:id="rId26" xr:uid="{8330FFB3-3F13-4839-B929-04790512F2F1}"/>
-    <hyperlink ref="G25" r:id="rId27" xr:uid="{8CD15789-B8C1-414A-9266-6C2495E3669F}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H5" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G5" r:id="rId9"/>
+    <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="G9" r:id="rId11"/>
+    <hyperlink ref="G10" r:id="rId12"/>
+    <hyperlink ref="G11" r:id="rId13"/>
+    <hyperlink ref="G12" r:id="rId14"/>
+    <hyperlink ref="G13" r:id="rId15"/>
+    <hyperlink ref="G16" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G18" r:id="rId18"/>
+    <hyperlink ref="G19" r:id="rId19"/>
+    <hyperlink ref="G20" r:id="rId20"/>
+    <hyperlink ref="G14" r:id="rId21"/>
+    <hyperlink ref="G15" r:id="rId22"/>
+    <hyperlink ref="G21" r:id="rId23"/>
+    <hyperlink ref="G22" r:id="rId24"/>
+    <hyperlink ref="G23" r:id="rId25"/>
+    <hyperlink ref="G24" r:id="rId26"/>
+    <hyperlink ref="G25" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF9F39-3440-49F6-B718-A308EB0F14AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3865,7 +3867,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3905,7 +3907,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3945,7 +3947,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3965,7 +3967,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4082,7 +4084,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4104,25 +4106,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{43E5644F-990D-444B-9B82-A04FCCC73DB6}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{D61D0680-168F-49AB-BEC6-B3376216E8BC}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{C5C30D72-155D-473E-803B-060CB200B9E6}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{DF970CBC-38FA-41CD-84F0-E31A646886CB}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{B85C714C-0D92-402F-9A44-97E3FA831867}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{A747A659-BA36-45EF-9D75-301F6A015680}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{DCB4B089-08F4-4E14-9033-B80CE84580AF}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{9BEF35A1-5FF4-4F80-8C41-15C0B9450F58}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{1149B726-F28C-4423-94CC-2CCC79A68DA8}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{56C069F9-1C33-428B-9A0E-0216790CFAF9}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{E94578A8-CBDC-45B5-A54D-4F127C837962}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{ED02349D-A697-4555-8E5A-5206880FA43C}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{DEA08BBE-E228-492F-889E-BA38267E359B}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{64E03A06-B39A-42FB-80EC-5AEA22299FAA}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{4A6877E1-A77A-49CB-8964-4CED7798C598}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{1C4B0FF0-D4E2-469B-B996-DC3C038E2348}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{189B199D-13CD-4473-A805-6480FB0EF04E}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{1E10F744-7A09-49AD-B5D3-837A14206C17}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{542FB6FE-9612-4CC8-8B05-AE9E1FA892E5}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/data/hci_data.xlsx
+++ b/backend/data/hci_data.xlsx
@@ -520,9 +520,6 @@
     <t>Andrew</t>
   </si>
   <si>
-    <t>https://calendar.google.com/calendar/embed?src=bqm3m328rgvj1egjbju303ud1o%40group.calendar.google.com&amp;ctz=America%2FNew_York</t>
-  </si>
-  <si>
     <t>Hannah</t>
   </si>
   <si>
@@ -1234,6 +1231,9 @@
   </si>
   <si>
     <t>1,8</t>
+  </si>
+  <si>
+    <t>https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=YnFtM20zMjhyZ3ZqMWVnamJqdTMwM3VkMW9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F09300%22</t>
   </si>
 </sst>
 </file>
@@ -2347,7 +2347,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,10 +2444,10 @@
         <v>158</v>
       </c>
       <c r="C7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2455,13 +2455,13 @@
         <v>125</v>
       </c>
       <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
         <v>160</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -2469,13 +2469,13 @@
         <v>127</v>
       </c>
       <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
         <v>163</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="R9" s="2"/>
     </row>
@@ -2484,13 +2484,13 @@
         <v>129</v>
       </c>
       <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
         <v>166</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2498,13 +2498,13 @@
         <v>131</v>
       </c>
       <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
         <v>169</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2512,13 +2512,13 @@
         <v>133</v>
       </c>
       <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
         <v>172</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2526,13 +2526,13 @@
         <v>135</v>
       </c>
       <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
         <v>175</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2540,13 +2540,13 @@
         <v>139</v>
       </c>
       <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
         <v>178</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2554,13 +2554,13 @@
         <v>141</v>
       </c>
       <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
         <v>181</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2568,13 +2568,13 @@
         <v>143</v>
       </c>
       <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" t="s">
         <v>184</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,13 +2582,13 @@
         <v>137</v>
       </c>
       <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" t="s">
         <v>187</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2598,17 +2598,16 @@
     <hyperlink ref="D5" r:id="rId3" display="https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E"/>
     <hyperlink ref="D6" r:id="rId4" display="https://calendar.google.com/calendar/embed?bgcolor=%23ffffff&amp;ctz=America%2FNew_York&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MDhhdWs3aTFrOWxxcmJsMTlwYTdsYmw0dDBAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23F4511E"/>
     <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D16" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D4" r:id="rId9" display="https://calendar.google.com/calendar/embed?src=cG5jczdtaWs4Z212OGh0bTRydWJybHM3OGdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=YmJycHY4YmUxcTYxMWV0NzVyb2J2OWtjamdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23EF6C00&amp;color=%23C0CA33&amp;color=%23009688"/>
-    <hyperlink ref="D14" r:id="rId10"/>
-    <hyperlink ref="D11" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D12" r:id="rId13" display="https://calendar.google.com/calendar/embed?src=dGRuYnBuY3VqMmxmY2ZsNXN1NHVrZWoyZ2NAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Mzd0c2M0MGxwbXFjdG1uNTUwOWsyZW5oMGNAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MjJlaml1aXF0dGZlbnV1a2pwbDBkaWdnYWtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%233F51B5&amp;color=%238E24AA"/>
-    <hyperlink ref="D9" r:id="rId14"/>
-    <hyperlink ref="D13" r:id="rId15" display="https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Y3UxMnNnYWZyMmtqanFhbnE4N2U1Mjhpbm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=dGlpa3NpazJxazh2ZjE0N2pucjJ1dG9sOW9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23B39DDB&amp;color=%23E67C73"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://calendar.google.com/calendar/embed?src=czkwNzJsOHZwYWk0Zjk1dGFzcXMwMDQ3N2tAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MWZhYjFjZzRsMzg2Y2xpZ2M4M3ZuYmNoMGtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=OHZrYWc5aHRoMDIzb2FlNXNvaHB0YTZ1bm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%23795548&amp;color=%23F09300"/>
+    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId8" display="https://calendar.google.com/calendar/embed?src=cG5jczdtaWs4Z212OGh0bTRydWJybHM3OGdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=YmJycHY4YmUxcTYxMWV0NzVyb2J2OWtjamdAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23EF6C00&amp;color=%23C0CA33&amp;color=%23009688"/>
+    <hyperlink ref="D14" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D15" r:id="rId11"/>
+    <hyperlink ref="D12" r:id="rId12" display="https://calendar.google.com/calendar/embed?src=dGRuYnBuY3VqMmxmY2ZsNXN1NHVrZWoyZ2NAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Mzd0c2M0MGxwbXFjdG1uNTUwOWsyZW5oMGNAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MjJlaml1aXF0dGZlbnV1a2pwbDBkaWdnYWtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%233F51B5&amp;color=%238E24AA"/>
+    <hyperlink ref="D9" r:id="rId13"/>
+    <hyperlink ref="D13" r:id="rId14" display="https://calendar.google.com/calendar/embed?src=aDkxczdicGJraTNldDcyYTFhZjU4cDlhZ29AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=Y3UxMnNnYWZyMmtqanFhbnE4N2U1Mjhpbm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=dGlpa3NpazJxazh2ZjE0N2pucjJ1dG9sOW9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23C0CA33&amp;color=%23B39DDB&amp;color=%23E67C73"/>
+    <hyperlink ref="D17" r:id="rId15" display="https://calendar.google.com/calendar/embed?src=czkwNzJsOHZwYWk0Zjk1dGFzcXMwMDQ3N2tAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=MWZhYjFjZzRsMzg2Y2xpZ2M4M3ZuYmNoMGtAZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;src=OHZrYWc5aHRoMDIzb2FlNXNvaHB0YTZ1bm9AZ3JvdXAuY2FsZW5kYXIuZ29vZ2xlLmNvbQ&amp;color=%23F4511E&amp;color=%23795548&amp;color=%23F09300"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2633,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -2657,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2671,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2691,10 +2690,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -2711,10 +2710,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -2731,10 +2730,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2751,10 +2750,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2771,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -2791,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2811,10 +2810,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2825,10 +2824,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2839,10 +2838,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2853,10 +2852,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2867,10 +2866,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2881,10 +2880,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2895,10 +2894,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,10 +2908,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,10 +2922,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,10 +2936,10 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,10 +2950,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,10 +2964,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,10 +2978,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,10 +2992,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,10 +3006,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,10 +3020,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3080,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,19 +3108,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3133,19 +3132,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
         <v>239</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,22 +3155,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3182,22 +3181,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3208,22 +3207,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
         <v>250</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,19 +3233,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" t="s">
         <v>254</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3257,19 +3256,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="D8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3280,19 +3279,19 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" t="s">
         <v>260</v>
       </c>
-      <c r="D9" t="s">
-        <v>261</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9">
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3303,19 +3302,19 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="D10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3326,19 +3325,19 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3349,19 +3348,19 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3372,19 +3371,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" t="s">
         <v>272</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3395,19 +3394,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
         <v>272</v>
       </c>
-      <c r="D14" t="s">
-        <v>273</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3418,19 +3417,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" t="s">
         <v>272</v>
       </c>
-      <c r="D15" t="s">
-        <v>273</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3441,19 +3440,19 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" t="s">
         <v>278</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>280</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3464,19 +3463,19 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="D17" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>283</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3487,16 +3486,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="F18">
         <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,19 +3506,19 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" t="s">
         <v>287</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="F19">
         <v>600</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3530,19 +3529,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" t="s">
         <v>292</v>
       </c>
-      <c r="F20" t="s">
-        <v>293</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3553,16 +3552,16 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" t="s">
         <v>294</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" t="s">
         <v>295</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" t="s">
-        <v>296</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>110</v>
@@ -3576,19 +3575,19 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" t="s">
         <v>297</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="F22">
         <v>125</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,19 +3598,19 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F23" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,19 +3621,19 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3645,16 +3644,16 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" t="s">
         <v>308</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="F25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>110</v>
@@ -3712,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,16 +3734,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,16 +3754,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,16 +3774,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,16 +3794,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,16 +3814,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,16 +3834,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3855,16 +3854,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
         <v>333</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,16 +3874,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" t="s">
         <v>337</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,16 +3894,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" t="s">
         <v>340</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,16 +3914,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" t="s">
         <v>343</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,16 +3934,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" t="s">
         <v>347</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,16 +3954,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" t="s">
         <v>350</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,16 +3974,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" t="s">
         <v>353</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,16 +3994,16 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,16 +4014,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" t="s">
         <v>361</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,16 +4034,16 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" t="s">
         <v>364</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,16 +4054,16 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,13 +4074,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,16 +4091,16 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" t="s">
         <v>372</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
